--- a/biology/Zoologie/Heteromyidae/Heteromyidae.xlsx
+++ b/biology/Zoologie/Heteromyidae/Heteromyidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hétéromidés, Souris kangourou
-Les Hétéromidés (Heteromyidae)[1] sont une famille de rongeurs, subdivisée en trois sous-familles. Ce sont des souris kangourou d'Amérique[2].
+Les Hétéromidés (Heteromyidae) sont une famille de rongeurs, subdivisée en trois sous-familles. Ce sont des souris kangourou d'Amérique.
 Cette famille a été décrite pour la première fois en 1868 par le zoologiste britannique John Edward Gray (1800-1875).
 </t>
         </is>
@@ -513,14 +525,50 @@
           <t>Liste des sous-familles et des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (2 juin 2016)[3], Mammal Species of the World (version 3, 2005)  (2 juin 2016)[4] et NCBI  (2 juin 2016)[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (2 juin 2016), Mammal Species of the World (version 3, 2005)  (2 juin 2016) et NCBI  (2 juin 2016) :
 sous-famille Dipodomyinae Gervais, 1853
 sous-famille Heteromyinae Gray, 1868
-sous-famille Perognathinae Coues, 1875
-Liste des genres
-Selon Mammal Species of the World (version 3, 2005)  (13 nov. 2012)[6] et NCBI  (13 nov. 2012)[7] :
+sous-famille Perognathinae Coues, 1875</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Heteromyidae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heteromyidae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des sous-familles et des genres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Mammal Species of the World (version 3, 2005)  (13 nov. 2012) et NCBI  (13 nov. 2012) :
 sous-famille Dipodomyinae
 genre Dipodomys
 genre Microdipodops
@@ -530,7 +578,7 @@
 sous-famille Perognathinae
 genre Chaetodipus
 genre Perognathus
-Selon Paleobiology Database                   (13 nov. 2012)[8] :
+Selon Paleobiology Database                   (13 nov. 2012) :
 genre Balantiomys
 genre Chaetodipus
 genre Cupidinimus
@@ -556,31 +604,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Heteromyidae</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Heteromyidae</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon Alexander &amp; Riddle, 2005.
 </t>
